--- a/Unity/Assets/Config/Excel/StartConfig/ExternalTest/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/ExternalTest/StartSceneConfig.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" state="visible" r:id="rId2"/>
@@ -425,7 +425,7 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1740,8 +1740,8 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1835,7 +1835,7 @@
         <v>45</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>30300</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1855,7 +1855,7 @@
         <v>47</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>30301</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1875,7 +1875,7 @@
         <v>48</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>30302</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1895,7 +1895,7 @@
         <v>49</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>30303</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1915,7 +1915,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>30304</v>
+        <v>3482</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/StartConfig/ExternalTest/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/ExternalTest/StartSceneConfig.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\ExternalTest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE49090C-E386-4D1B-82B3-17018491D584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="StartSceneConfig" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Robot区" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Router" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="Robot区" sheetId="2" r:id="rId2"/>
+    <sheet name="Router" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,192 +27,174 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="51">
-  <si>
-    <t xml:space="preserve">##var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SceneType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OuterPort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##</t>
-  </si>
-  <si>
-    <t xml:space="preserve">所属进程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">所属区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">名字</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外网端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Match</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PlayerCache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gate1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gate2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gate3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gate4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benchmark1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benchmark2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benchmark3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benchmark4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benchmark5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benchmark6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benchmark7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benchmark8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zpbTest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robot01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RouterManager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Router</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Router01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Router02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Router03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Router04</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="52">
+  <si>
+    <t>##var</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>SceneType</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>OuterPort</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>所属进程</t>
+  </si>
+  <si>
+    <t>所属区</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>外网端口</t>
+  </si>
+  <si>
+    <t>Realm</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>PlayerCache</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>Gate1</t>
+  </si>
+  <si>
+    <t>Gate2</t>
+  </si>
+  <si>
+    <t>Gate3</t>
+  </si>
+  <si>
+    <t>Gate4</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Benchmark1</t>
+  </si>
+  <si>
+    <t>Benchmark2</t>
+  </si>
+  <si>
+    <t>Benchmark3</t>
+  </si>
+  <si>
+    <t>Benchmark4</t>
+  </si>
+  <si>
+    <t>Benchmark5</t>
+  </si>
+  <si>
+    <t>Benchmark6</t>
+  </si>
+  <si>
+    <t>Benchmark7</t>
+  </si>
+  <si>
+    <t>Benchmark8</t>
+  </si>
+  <si>
+    <t>Map1</t>
+  </si>
+  <si>
+    <t>Map2</t>
+  </si>
+  <si>
+    <t>Map3</t>
+  </si>
+  <si>
+    <t>zpbTest</t>
+  </si>
+  <si>
+    <t>Dynamic</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Robot01</t>
+  </si>
+  <si>
+    <t>RouterManager</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Router01</t>
+  </si>
+  <si>
+    <t>Router02</t>
+  </si>
+  <si>
+    <t>Router03</t>
+  </si>
+  <si>
+    <t>Router04</t>
+  </si>
+  <si>
+    <t>Season</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
@@ -238,6 +225,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -260,7 +253,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -268,93 +261,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Good" xfId="20"/>
-    <cellStyle name="Excel Built-in Bad" xfId="21"/>
+  <cellStyles count="3">
+    <cellStyle name="Excel Built-in Bad" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Excel Built-in Good" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -413,34 +358,342 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="12.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="14.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="13.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="9"/>
+    <col min="1" max="1" width="21.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="2" customWidth="1"/>
+    <col min="9" max="1025" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -464,7 +717,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -488,7 +741,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" s="3" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -512,14 +765,14 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -528,18 +781,18 @@
       <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="7">
         <v>30002</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="n">
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -550,14 +803,14 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="n">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="7">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -568,14 +821,14 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="n">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="7">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -586,14 +839,14 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="n">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="7">
         <v>3</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="7">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -604,14 +857,14 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2" t="n">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="7">
         <v>4</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="7">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -622,14 +875,14 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="n">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="7">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -640,14 +893,14 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="n">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
         <v>8</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="7">
         <v>4</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="7">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -658,14 +911,14 @@
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7" t="n">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
         <v>9</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="7">
         <v>5</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="7">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -674,19 +927,19 @@
       <c r="F12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="7" t="n">
+      <c r="G12" s="7">
         <v>30003</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C13" s="7">
         <v>6</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="7">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -695,18 +948,18 @@
       <c r="F13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="7" t="n">
+      <c r="G13" s="7">
         <v>30004</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="7" t="n">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="7">
         <v>11</v>
       </c>
-      <c r="C14" s="7" t="n">
+      <c r="C14" s="7">
         <v>7</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="7">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -715,19 +968,19 @@
       <c r="F14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="7" t="n">
+      <c r="G14" s="7">
         <v>30005</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
-      <c r="B15" s="7" t="n">
+      <c r="B15" s="7">
         <v>12</v>
       </c>
-      <c r="C15" s="7" t="n">
+      <c r="C15" s="7">
         <v>8</v>
       </c>
-      <c r="D15" s="7" t="n">
+      <c r="D15" s="7">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -736,18 +989,18 @@
       <c r="F15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="7" t="n">
+      <c r="G15" s="7">
         <v>30006</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="7" t="n">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="7">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="2">
         <v>9</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" s="7">
         <v>1</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -758,14 +1011,14 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2" t="n">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="2">
         <v>10</v>
       </c>
-      <c r="D17" s="7" t="n">
+      <c r="D17" s="7">
         <v>1</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -776,14 +1029,14 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="7" t="n">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="7">
         <v>15</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="2">
         <v>11</v>
       </c>
-      <c r="D18" s="7" t="n">
+      <c r="D18" s="7">
         <v>1</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -794,14 +1047,14 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="7" t="n">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="7">
         <v>16</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="2">
         <v>12</v>
       </c>
-      <c r="D19" s="7" t="n">
+      <c r="D19" s="7">
         <v>1</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -812,14 +1065,14 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="7" t="n">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="7">
         <v>17</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="2">
         <v>13</v>
       </c>
-      <c r="D20" s="7" t="n">
+      <c r="D20" s="7">
         <v>1</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -830,14 +1083,14 @@
       </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2" t="n">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
         <v>18</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="2">
         <v>14</v>
       </c>
-      <c r="D21" s="7" t="n">
+      <c r="D21" s="7">
         <v>1</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -848,14 +1101,14 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="7" t="n">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="7">
         <v>19</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="2">
         <v>15</v>
       </c>
-      <c r="D22" s="7" t="n">
+      <c r="D22" s="7">
         <v>1</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -866,14 +1119,14 @@
       </c>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="7" t="n">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="7">
         <v>20</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="2">
         <v>16</v>
       </c>
-      <c r="D23" s="7" t="n">
+      <c r="D23" s="7">
         <v>1</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -884,14 +1137,14 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="7" t="n">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="7">
         <v>21</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="2">
         <v>17</v>
       </c>
-      <c r="D24" s="7" t="n">
+      <c r="D24" s="7">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -902,14 +1155,14 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="2" t="n">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
         <v>22</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="2">
         <v>18</v>
       </c>
-      <c r="D25" s="7" t="n">
+      <c r="D25" s="7">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -920,14 +1173,14 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="7" t="n">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="7">
         <v>23</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="2">
         <v>19</v>
       </c>
-      <c r="D26" s="7" t="n">
+      <c r="D26" s="7">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -938,14 +1191,14 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="7" t="n">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="7">
         <v>24</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="2">
         <v>20</v>
       </c>
-      <c r="D27" s="7" t="n">
+      <c r="D27" s="7">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -956,14 +1209,14 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="7" t="n">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="7">
         <v>25</v>
       </c>
-      <c r="C28" s="7" t="n">
+      <c r="C28" s="7">
         <v>9</v>
       </c>
-      <c r="D28" s="7" t="n">
+      <c r="D28" s="7">
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -974,14 +1227,14 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="2" t="n">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
         <v>26</v>
       </c>
-      <c r="C29" s="7" t="n">
+      <c r="C29" s="7">
         <v>10</v>
       </c>
-      <c r="D29" s="7" t="n">
+      <c r="D29" s="7">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -992,14 +1245,14 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="7" t="n">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="7">
         <v>27</v>
       </c>
-      <c r="C30" s="7" t="n">
+      <c r="C30" s="7">
         <v>11</v>
       </c>
-      <c r="D30" s="7" t="n">
+      <c r="D30" s="7">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -1010,14 +1263,14 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="7" t="n">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="7">
         <v>28</v>
       </c>
-      <c r="C31" s="7" t="n">
+      <c r="C31" s="7">
         <v>12</v>
       </c>
-      <c r="D31" s="7" t="n">
+      <c r="D31" s="7">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -1027,14 +1280,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="7" t="n">
-        <v>29</v>
-      </c>
-      <c r="C32" s="7" t="n">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="7">
+        <v>29</v>
+      </c>
+      <c r="C32" s="7">
         <v>13</v>
       </c>
-      <c r="D32" s="7" t="n">
+      <c r="D32" s="7">
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -1044,14 +1297,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="2" t="n">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="2">
         <v>30</v>
       </c>
-      <c r="C33" s="7" t="n">
+      <c r="C33" s="7">
         <v>14</v>
       </c>
-      <c r="D33" s="7" t="n">
+      <c r="D33" s="7">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -1061,14 +1314,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="7" t="n">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="7">
         <v>31</v>
       </c>
-      <c r="C34" s="7" t="n">
+      <c r="C34" s="7">
         <v>15</v>
       </c>
-      <c r="D34" s="7" t="n">
+      <c r="D34" s="7">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -1078,14 +1331,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="7" t="n">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="7">
         <v>32</v>
       </c>
-      <c r="C35" s="7" t="n">
+      <c r="C35" s="7">
         <v>16</v>
       </c>
-      <c r="D35" s="7" t="n">
+      <c r="D35" s="7">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -1095,14 +1348,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="7" t="n">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="7">
         <v>33</v>
       </c>
-      <c r="C36" s="7" t="n">
+      <c r="C36" s="7">
         <v>17</v>
       </c>
-      <c r="D36" s="7" t="n">
+      <c r="D36" s="7">
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -1112,14 +1365,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="2" t="n">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="2">
         <v>34</v>
       </c>
-      <c r="C37" s="7" t="n">
+      <c r="C37" s="7">
         <v>18</v>
       </c>
-      <c r="D37" s="7" t="n">
+      <c r="D37" s="7">
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -1129,14 +1382,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="7" t="n">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="7">
         <v>35</v>
       </c>
-      <c r="C38" s="7" t="n">
+      <c r="C38" s="7">
         <v>19</v>
       </c>
-      <c r="D38" s="7" t="n">
+      <c r="D38" s="7">
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -1146,14 +1399,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="7" t="n">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="7">
         <v>36</v>
       </c>
-      <c r="C39" s="7" t="n">
+      <c r="C39" s="7">
         <v>20</v>
       </c>
-      <c r="D39" s="7" t="n">
+      <c r="D39" s="7">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -1163,14 +1416,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="7" t="n">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="7">
         <v>37</v>
       </c>
-      <c r="C40" s="7" t="n">
+      <c r="C40" s="7">
         <v>21</v>
       </c>
-      <c r="D40" s="7" t="n">
+      <c r="D40" s="7">
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -1180,14 +1433,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="2" t="n">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="2">
         <v>38</v>
       </c>
-      <c r="C41" s="7" t="n">
+      <c r="C41" s="7">
         <v>22</v>
       </c>
-      <c r="D41" s="7" t="n">
+      <c r="D41" s="7">
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -1197,14 +1450,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="7" t="n">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="7">
         <v>39</v>
       </c>
-      <c r="C42" s="7" t="n">
+      <c r="C42" s="7">
         <v>23</v>
       </c>
-      <c r="D42" s="7" t="n">
+      <c r="D42" s="7">
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -1214,14 +1467,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="7" t="n">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="7">
         <v>40</v>
       </c>
-      <c r="C43" s="7" t="n">
+      <c r="C43" s="7">
         <v>24</v>
       </c>
-      <c r="D43" s="7" t="n">
+      <c r="D43" s="7">
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -1231,14 +1484,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="7" t="n">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="7">
         <v>41</v>
       </c>
-      <c r="C44" s="7" t="n">
+      <c r="C44" s="7">
         <v>25</v>
       </c>
-      <c r="D44" s="7" t="n">
+      <c r="D44" s="7">
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -1248,14 +1501,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="C45" s="7" t="n">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="2">
+        <v>42</v>
+      </c>
+      <c r="C45" s="7">
         <v>26</v>
       </c>
-      <c r="D45" s="7" t="n">
+      <c r="D45" s="7">
         <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -1265,14 +1518,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="7" t="n">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="7">
         <v>43</v>
       </c>
-      <c r="C46" s="7" t="n">
+      <c r="C46" s="7">
         <v>27</v>
       </c>
-      <c r="D46" s="7" t="n">
+      <c r="D46" s="7">
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -1282,14 +1535,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="7" t="n">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="7">
         <v>44</v>
       </c>
-      <c r="C47" s="7" t="n">
+      <c r="C47" s="7">
         <v>28</v>
       </c>
-      <c r="D47" s="7" t="n">
+      <c r="D47" s="7">
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -1299,14 +1552,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="7" t="n">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="7">
         <v>45</v>
       </c>
-      <c r="C48" s="7" t="n">
-        <v>29</v>
-      </c>
-      <c r="D48" s="7" t="n">
+      <c r="C48" s="7">
+        <v>29</v>
+      </c>
+      <c r="D48" s="7">
         <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
@@ -1316,14 +1569,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="2" t="n">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="2">
         <v>46</v>
       </c>
-      <c r="C49" s="7" t="n">
+      <c r="C49" s="7">
         <v>30</v>
       </c>
-      <c r="D49" s="7" t="n">
+      <c r="D49" s="7">
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -1333,14 +1586,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="7" t="n">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="7">
         <v>47</v>
       </c>
-      <c r="C50" s="7" t="n">
+      <c r="C50" s="7">
         <v>31</v>
       </c>
-      <c r="D50" s="7" t="n">
+      <c r="D50" s="7">
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -1350,14 +1603,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="7" t="n">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="7">
         <v>48</v>
       </c>
-      <c r="C51" s="7" t="n">
+      <c r="C51" s="7">
         <v>32</v>
       </c>
-      <c r="D51" s="7" t="n">
+      <c r="D51" s="7">
         <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -1367,14 +1620,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="7" t="n">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="7">
         <v>49</v>
       </c>
-      <c r="C52" s="7" t="n">
+      <c r="C52" s="7">
         <v>33</v>
       </c>
-      <c r="D52" s="7" t="n">
+      <c r="D52" s="7">
         <v>1</v>
       </c>
       <c r="E52" s="2" t="s">
@@ -1384,14 +1637,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="2" t="n">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="2">
         <v>50</v>
       </c>
-      <c r="C53" s="7" t="n">
+      <c r="C53" s="7">
         <v>34</v>
       </c>
-      <c r="D53" s="7" t="n">
+      <c r="D53" s="7">
         <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
@@ -1401,14 +1654,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="7" t="n">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="7">
         <v>51</v>
       </c>
-      <c r="C54" s="7" t="n">
+      <c r="C54" s="7">
         <v>35</v>
       </c>
-      <c r="D54" s="7" t="n">
+      <c r="D54" s="7">
         <v>1</v>
       </c>
       <c r="E54" s="2" t="s">
@@ -1418,14 +1671,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="7" t="n">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="7">
         <v>52</v>
       </c>
-      <c r="C55" s="7" t="n">
+      <c r="C55" s="7">
         <v>36</v>
       </c>
-      <c r="D55" s="7" t="n">
+      <c r="D55" s="7">
         <v>1</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -1435,14 +1688,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="7" t="n">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="7">
         <v>53</v>
       </c>
-      <c r="C56" s="7" t="n">
+      <c r="C56" s="7">
         <v>37</v>
       </c>
-      <c r="D56" s="7" t="n">
+      <c r="D56" s="7">
         <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -1452,14 +1705,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="2" t="n">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="2">
         <v>54</v>
       </c>
-      <c r="C57" s="7" t="n">
+      <c r="C57" s="7">
         <v>38</v>
       </c>
-      <c r="D57" s="7" t="n">
+      <c r="D57" s="7">
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
@@ -1469,14 +1722,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="7" t="n">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="7">
         <v>55</v>
       </c>
-      <c r="C58" s="7" t="n">
+      <c r="C58" s="7">
         <v>39</v>
       </c>
-      <c r="D58" s="7" t="n">
+      <c r="D58" s="7">
         <v>1</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -1486,14 +1739,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="7" t="n">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="7">
         <v>56</v>
       </c>
-      <c r="C59" s="7" t="n">
+      <c r="C59" s="7">
         <v>40</v>
       </c>
-      <c r="D59" s="7" t="n">
+      <c r="D59" s="7">
         <v>1</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -1503,55 +1756,47 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="7">
+        <v>57</v>
+      </c>
+      <c r="C60" s="7">
+        <v>4</v>
+      </c>
+      <c r="D60" s="7">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMK17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="2" width="12.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="9"/>
+    <col min="1" max="1" width="21.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="2" customWidth="1"/>
+    <col min="9" max="1025" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1597,7 +1842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1620,15 +1865,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="9">
         <v>200</v>
       </c>
-      <c r="C4" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9" t="n">
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
         <v>2</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -1640,7 +1885,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1650,7 +1895,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" s="8" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1660,7 +1905,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1670,7 +1915,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1680,7 +1925,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1690,43 +1935,43 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
@@ -1734,22 +1979,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.57"/>
+    <col min="1" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1772,7 +2014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1795,7 +2037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1818,14 +2060,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="7">
         <v>300</v>
       </c>
-      <c r="C4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="n">
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
         <v>3</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -1834,18 +2076,18 @@
       <c r="F4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="7">
         <v>3478</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
         <v>301</v>
       </c>
-      <c r="C5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="n">
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -1854,18 +2096,18 @@
       <c r="F5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="7">
         <v>3479</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
         <v>302</v>
       </c>
-      <c r="C6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="n">
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
         <v>3</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1874,18 +2116,18 @@
       <c r="F6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="7">
         <v>3480</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
         <v>303</v>
       </c>
-      <c r="C7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="n">
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
         <v>3</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1894,18 +2136,18 @@
       <c r="F7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="7" t="n">
+      <c r="G7" s="7">
         <v>3481</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
         <v>304</v>
       </c>
-      <c r="C8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="n">
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
         <v>3</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -1914,15 +2156,15 @@
       <c r="F8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="7">
         <v>3482</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>

--- a/Unity/Assets/Config/Excel/StartConfig/ExternalTest/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/ExternalTest/StartSceneConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\ExternalTest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F03E9EF-E6A9-4463-8A5A-3FEB0BACB4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17700" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -20,8 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -161,19 +165,16 @@
   </si>
   <si>
     <t>Router04</t>
+  </si>
+  <si>
+    <t>ActionFromHttp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -205,158 +206,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,194 +230,8 @@
         <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -570,262 +239,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="50" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="50" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -845,59 +272,12 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
-    <cellStyle name="Excel Built-in Bad" xfId="49"/>
-    <cellStyle name="Excel Built-in Good" xfId="50"/>
+  <cellStyles count="3">
+    <cellStyle name="Excel Built-in Bad" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Excel Built-in Good" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -970,6 +350,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1227,30 +610,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1083333333333" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.6666666666667" style="7" customWidth="1"/>
-    <col min="3" max="4" width="12.6666666666667" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.6666666666667" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.3333333333333" style="8" customWidth="1"/>
-    <col min="7" max="8" width="13.1083333333333" style="8" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="7" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="8" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="8" customWidth="1"/>
     <col min="9" max="1025" width="9" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +657,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" s="3" customFormat="1" ht="13.5" spans="1:8">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1298,7 +681,7 @@
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:8">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1322,7 +705,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -1342,7 +725,7 @@
         <v>30002</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="8">
         <v>2</v>
       </c>
@@ -1360,7 +743,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -1378,7 +761,7 @@
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -1396,7 +779,7 @@
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -1414,7 +797,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8">
         <v>6</v>
       </c>
@@ -1432,7 +815,7 @@
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>7</v>
       </c>
@@ -1450,7 +833,7 @@
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>8</v>
       </c>
@@ -1468,7 +851,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="8">
         <v>9</v>
       </c>
@@ -1488,7 +871,7 @@
         <v>30003</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="5">
         <v>10</v>
@@ -1509,7 +892,7 @@
         <v>30004</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>11</v>
       </c>
@@ -1529,7 +912,7 @@
         <v>30005</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="5">
         <v>12</v>
@@ -1550,7 +933,7 @@
         <v>30006</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="8">
         <v>13</v>
       </c>
@@ -1568,7 +951,7 @@
       </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>14</v>
       </c>
@@ -1586,7 +969,7 @@
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>15</v>
       </c>
@@ -1604,7 +987,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="8">
         <v>16</v>
       </c>
@@ -1622,7 +1005,7 @@
       </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>17</v>
       </c>
@@ -1640,7 +1023,7 @@
       </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>18</v>
       </c>
@@ -1658,7 +1041,7 @@
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>19</v>
       </c>
@@ -1676,7 +1059,7 @@
       </c>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="8">
         <v>20</v>
       </c>
@@ -1693,7 +1076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>21</v>
       </c>
@@ -1710,33 +1093,50 @@
         <v>35</v>
       </c>
     </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="7">
+        <v>504</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="8">
+        <v>6088</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMK17"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1083333333333" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.6666666666667" style="7" customWidth="1"/>
-    <col min="3" max="5" width="12.6666666666667" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.3333333333333" style="8" customWidth="1"/>
-    <col min="7" max="8" width="13.1083333333333" style="8" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="7" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="8" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="8" customWidth="1"/>
     <col min="9" max="1025" width="9" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1759,7 +1159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1782,7 +1182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1805,7 +1205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="9">
         <v>200</v>
@@ -1825,7 +1225,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1835,7 +1235,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" s="6" customFormat="1" spans="1:8">
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1845,7 +1245,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1855,7 +1255,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1865,7 +1265,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1875,40 +1275,41 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
@@ -1918,20 +1319,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="11.5583333333333" customWidth="1"/>
+    <col min="1" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1954,7 +1354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1977,7 +1377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2000,7 +1400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="2:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>300</v>
       </c>
@@ -2020,7 +1420,7 @@
         <v>3478</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="2:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>301</v>
       </c>
@@ -2040,7 +1440,7 @@
         <v>3479</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>302</v>
       </c>
@@ -2060,7 +1460,7 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="2:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>303</v>
       </c>
@@ -2080,7 +1480,7 @@
         <v>3481</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="2:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>304</v>
       </c>
@@ -2101,7 +1501,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
